--- a/biology/Médecine/Dysphagie/Dysphagie.xlsx
+++ b/biology/Médecine/Dysphagie/Dysphagie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dysphagie est une sensation de gêne ou de blocage ressentie au moment de l'alimentation, lors du passage des aliments dans la bouche, le pharynx ou l'œsophage. Sa forme extrême est l'aphagie (impossibilité de déglutir).
-La dysphagie doit être distinguée de l’odynophagie qui est une douleur provoquée par la déglutition, d’une sensation de satiété précoce ressentie parfois comme un blocage épigastrique, des dysphagies oropharyngées hautes ou encore du globus hystericus[1], sensation de constriction pharyngée permanente (boule dans la gorge) liée au stress et cédant à l'ingestion alimentaire. La dysphagie touche 2 millions de personnes en France, les personnes âgées fragiles sont les plus touchées[2].
+La dysphagie doit être distinguée de l’odynophagie qui est une douleur provoquée par la déglutition, d’une sensation de satiété précoce ressentie parfois comme un blocage épigastrique, des dysphagies oropharyngées hautes ou encore du globus hystericus, sensation de constriction pharyngée permanente (boule dans la gorge) liée au stress et cédant à l'ingestion alimentaire. La dysphagie touche 2 millions de personnes en France, les personnes âgées fragiles sont les plus touchées.
 Deux grandes classes de dysphagie existent : dysphagie haute ou dysphagie oropharyngée et la dysphagie basse ou dysphagie œsophagienne.
 Deux types de causes de la dysphagie œsophagienne possibles :
 les lésions organiques de l'œsophage : obstacle, rétrécissement ;
@@ -520,7 +532,9 @@
           <t>Causes organiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cancer de l'œsophage
@@ -529,7 +543,7 @@
 mucites buccales
 Sténose post-radiothérapie
 Sténose post-infectieuse (tuberculose)
-Syndrome de délétion 22q11.2[3]
+Syndrome de délétion 22q11.2
 Syndrome de Plummer-Vinson ou de Kelly-Patterson
 Syndrome d'Eagle
 Œsophagite infectieuse (bactérienne, virale, mycosique : Candida albicans)
@@ -542,7 +556,7 @@
 AVC lacunaire
 Certaines intoxications (dont par certains neurotoxiques)
 Sclérose en plaques
-Carence martiale (carence en fer) avec ou sans anémie [4]
+Carence martiale (carence en fer) avec ou sans anémie 
 </t>
         </is>
       </c>
@@ -571,7 +585,9 @@
           <t>Causes fonctionnelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Achalasie ou mégaœsophagie idiopathique : absence de péristaltisme le plus souvent associée à des troubles de la relaxation du sphincter œsophagien inférieur lors de la déglutition
 Maladie des spasmes diffus de l’œsophage, dysphagie variable, capricieuse souvent modérée avec sensation de gêne et douleurs rétrosternales
